--- a/mode4.xlsx
+++ b/mode4.xlsx
@@ -23,6 +23,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-15_11-05" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-15_11-22" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-15_19-49" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-22_10-08" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-22_17-31" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-24_20-54" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9594,6 +9597,3924 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3607088</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>362133</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.39</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>286250</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>221965</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>211902</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.88</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181826</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.73</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>34</v>
+      </c>
+      <c r="D28" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E28" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>789</v>
+      </c>
+      <c r="G28" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E29" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>844</v>
+      </c>
+      <c r="G29" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G30" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E31" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F31" t="n">
+        <v>719</v>
+      </c>
+      <c r="G31" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E32" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F32" t="n">
+        <v>519</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F33" t="n">
+        <v>807</v>
+      </c>
+      <c r="G33" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E34" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>670</v>
+      </c>
+      <c r="G34" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E35" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F35" t="n">
+        <v>486</v>
+      </c>
+      <c r="G35" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E36" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F36" t="n">
+        <v>813</v>
+      </c>
+      <c r="G36" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>31</v>
+      </c>
+      <c r="D37" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E37" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F37" t="n">
+        <v>609</v>
+      </c>
+      <c r="G37" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E38" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>772</v>
+      </c>
+      <c r="G38" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E39" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G39" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E40" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F40" t="n">
+        <v>689</v>
+      </c>
+      <c r="G40" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E41" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G41" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E42" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>408</v>
+      </c>
+      <c r="G42" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E43" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>842</v>
+      </c>
+      <c r="G43" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E44" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G44" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E45" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>524</v>
+      </c>
+      <c r="G45" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E46" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>570</v>
+      </c>
+      <c r="G46" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E47" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G47" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>29</v>
+      </c>
+      <c r="D48" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E48" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F48" t="n">
+        <v>349</v>
+      </c>
+      <c r="G48" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E49" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F49" t="n">
+        <v>857</v>
+      </c>
+      <c r="G49" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E50" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>716</v>
+      </c>
+      <c r="G50" t="n">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Benny9027</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74804</v>
+      </c>
+      <c r="E51" t="n">
+        <v>89.36</v>
+      </c>
+      <c r="F51" t="n">
+        <v>569</v>
+      </c>
+      <c r="G51" t="n">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3607088</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>362133</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.39</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>286511</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>221965</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>211902</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.88</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181826</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.73</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>34</v>
+      </c>
+      <c r="D28" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E28" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>789</v>
+      </c>
+      <c r="G28" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E29" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>844</v>
+      </c>
+      <c r="G29" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G30" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E31" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F31" t="n">
+        <v>719</v>
+      </c>
+      <c r="G31" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E32" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F32" t="n">
+        <v>519</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F33" t="n">
+        <v>807</v>
+      </c>
+      <c r="G33" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E34" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>670</v>
+      </c>
+      <c r="G34" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E35" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F35" t="n">
+        <v>486</v>
+      </c>
+      <c r="G35" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E36" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F36" t="n">
+        <v>813</v>
+      </c>
+      <c r="G36" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>31</v>
+      </c>
+      <c r="D37" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E37" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F37" t="n">
+        <v>609</v>
+      </c>
+      <c r="G37" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E38" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>772</v>
+      </c>
+      <c r="G38" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E39" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G39" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E40" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F40" t="n">
+        <v>689</v>
+      </c>
+      <c r="G40" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E41" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G41" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E42" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>408</v>
+      </c>
+      <c r="G42" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E43" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>842</v>
+      </c>
+      <c r="G43" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E44" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G44" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E45" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>524</v>
+      </c>
+      <c r="G45" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E46" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>570</v>
+      </c>
+      <c r="G46" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E47" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G47" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>29</v>
+      </c>
+      <c r="D48" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E48" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F48" t="n">
+        <v>349</v>
+      </c>
+      <c r="G48" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E49" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F49" t="n">
+        <v>857</v>
+      </c>
+      <c r="G49" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E50" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>716</v>
+      </c>
+      <c r="G50" t="n">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Benny9027</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74804</v>
+      </c>
+      <c r="E51" t="n">
+        <v>89.36</v>
+      </c>
+      <c r="F51" t="n">
+        <v>569</v>
+      </c>
+      <c r="G51" t="n">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3607088</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>362133</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.39</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>286511</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.67</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>221965</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>211902</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.88</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181826</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.73</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>34</v>
+      </c>
+      <c r="D28" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E28" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>789</v>
+      </c>
+      <c r="G28" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E29" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>844</v>
+      </c>
+      <c r="G29" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G30" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E31" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F31" t="n">
+        <v>719</v>
+      </c>
+      <c r="G31" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E32" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F32" t="n">
+        <v>519</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F33" t="n">
+        <v>807</v>
+      </c>
+      <c r="G33" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E34" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>670</v>
+      </c>
+      <c r="G34" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E35" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F35" t="n">
+        <v>486</v>
+      </c>
+      <c r="G35" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E36" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F36" t="n">
+        <v>813</v>
+      </c>
+      <c r="G36" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>31</v>
+      </c>
+      <c r="D37" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E37" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F37" t="n">
+        <v>609</v>
+      </c>
+      <c r="G37" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E38" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>772</v>
+      </c>
+      <c r="G38" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E39" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G39" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E40" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F40" t="n">
+        <v>689</v>
+      </c>
+      <c r="G40" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E41" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G41" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E42" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>408</v>
+      </c>
+      <c r="G42" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E43" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>842</v>
+      </c>
+      <c r="G43" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E44" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G44" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E45" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>524</v>
+      </c>
+      <c r="G45" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E46" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>570</v>
+      </c>
+      <c r="G46" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E47" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G47" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>29</v>
+      </c>
+      <c r="D48" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E48" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F48" t="n">
+        <v>349</v>
+      </c>
+      <c r="G48" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E49" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F49" t="n">
+        <v>857</v>
+      </c>
+      <c r="G49" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E50" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>716</v>
+      </c>
+      <c r="G50" t="n">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Benny9027</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74804</v>
+      </c>
+      <c r="E51" t="n">
+        <v>89.36</v>
+      </c>
+      <c r="F51" t="n">
+        <v>569</v>
+      </c>
+      <c r="G51" t="n">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode4.xlsx
+++ b/mode4.xlsx
@@ -26,6 +26,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-22_10-08" sheetId="17" state="visible" r:id="rId17"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-22_17-31" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-24_20-54" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-26_21-38" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14821,6 +14822,1312 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3607088</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>362133</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.39</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>286511</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.67</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>221965</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.88</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181826</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.73</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>34</v>
+      </c>
+      <c r="D28" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E28" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>789</v>
+      </c>
+      <c r="G28" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E29" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>844</v>
+      </c>
+      <c r="G29" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G30" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E31" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F31" t="n">
+        <v>719</v>
+      </c>
+      <c r="G31" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E32" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F32" t="n">
+        <v>519</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F33" t="n">
+        <v>807</v>
+      </c>
+      <c r="G33" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E34" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>670</v>
+      </c>
+      <c r="G34" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E35" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F35" t="n">
+        <v>486</v>
+      </c>
+      <c r="G35" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E36" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F36" t="n">
+        <v>813</v>
+      </c>
+      <c r="G36" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>31</v>
+      </c>
+      <c r="D37" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E37" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F37" t="n">
+        <v>609</v>
+      </c>
+      <c r="G37" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E38" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>772</v>
+      </c>
+      <c r="G38" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E39" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G39" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E40" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F40" t="n">
+        <v>689</v>
+      </c>
+      <c r="G40" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E41" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G41" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E42" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>408</v>
+      </c>
+      <c r="G42" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E43" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>842</v>
+      </c>
+      <c r="G43" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E44" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G44" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E45" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>524</v>
+      </c>
+      <c r="G45" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E46" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>570</v>
+      </c>
+      <c r="G46" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E47" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G47" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>29</v>
+      </c>
+      <c r="D48" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E48" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F48" t="n">
+        <v>349</v>
+      </c>
+      <c r="G48" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E49" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F49" t="n">
+        <v>857</v>
+      </c>
+      <c r="G49" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E50" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>716</v>
+      </c>
+      <c r="G50" t="n">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Benny9027</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74804</v>
+      </c>
+      <c r="E51" t="n">
+        <v>89.36</v>
+      </c>
+      <c r="F51" t="n">
+        <v>569</v>
+      </c>
+      <c r="G51" t="n">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode4.xlsx
+++ b/mode4.xlsx
@@ -27,6 +27,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-22_17-31" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-24_20-54" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-26_21-38" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-28_02-32" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-28_07-48" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-28_08-20" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-28_08-51" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16128,6 +16132,5230 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3607088</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>362133</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.39</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>286511</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.67</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>221965</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.88</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181826</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.73</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>34</v>
+      </c>
+      <c r="D28" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E28" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>789</v>
+      </c>
+      <c r="G28" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E29" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>844</v>
+      </c>
+      <c r="G29" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G30" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E31" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F31" t="n">
+        <v>719</v>
+      </c>
+      <c r="G31" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E32" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F32" t="n">
+        <v>519</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F33" t="n">
+        <v>807</v>
+      </c>
+      <c r="G33" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E34" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>670</v>
+      </c>
+      <c r="G34" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E35" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F35" t="n">
+        <v>486</v>
+      </c>
+      <c r="G35" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E36" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F36" t="n">
+        <v>813</v>
+      </c>
+      <c r="G36" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>31</v>
+      </c>
+      <c r="D37" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E37" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F37" t="n">
+        <v>609</v>
+      </c>
+      <c r="G37" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E38" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>772</v>
+      </c>
+      <c r="G38" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E39" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G39" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E40" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F40" t="n">
+        <v>689</v>
+      </c>
+      <c r="G40" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E41" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G41" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E42" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>408</v>
+      </c>
+      <c r="G42" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E43" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>842</v>
+      </c>
+      <c r="G43" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E44" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G44" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E45" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>524</v>
+      </c>
+      <c r="G45" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E46" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>570</v>
+      </c>
+      <c r="G46" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E47" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G47" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>29</v>
+      </c>
+      <c r="D48" t="n">
+        <v>75838</v>
+      </c>
+      <c r="E48" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>725</v>
+      </c>
+      <c r="G48" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3607088</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>362133</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.39</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>286511</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.67</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>222123</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.88</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181826</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.73</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>34</v>
+      </c>
+      <c r="D28" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E28" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>789</v>
+      </c>
+      <c r="G28" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E29" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>844</v>
+      </c>
+      <c r="G29" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G30" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E31" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F31" t="n">
+        <v>719</v>
+      </c>
+      <c r="G31" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E32" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F32" t="n">
+        <v>519</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F33" t="n">
+        <v>807</v>
+      </c>
+      <c r="G33" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E34" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>670</v>
+      </c>
+      <c r="G34" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E35" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F35" t="n">
+        <v>486</v>
+      </c>
+      <c r="G35" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E36" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F36" t="n">
+        <v>813</v>
+      </c>
+      <c r="G36" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>31</v>
+      </c>
+      <c r="D37" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E37" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F37" t="n">
+        <v>609</v>
+      </c>
+      <c r="G37" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E38" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>772</v>
+      </c>
+      <c r="G38" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E39" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G39" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E40" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F40" t="n">
+        <v>689</v>
+      </c>
+      <c r="G40" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E41" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G41" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E42" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>408</v>
+      </c>
+      <c r="G42" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E43" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>842</v>
+      </c>
+      <c r="G43" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E44" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G44" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E45" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>524</v>
+      </c>
+      <c r="G45" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E46" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>570</v>
+      </c>
+      <c r="G46" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E47" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G47" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>29</v>
+      </c>
+      <c r="D48" t="n">
+        <v>75838</v>
+      </c>
+      <c r="E48" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>725</v>
+      </c>
+      <c r="G48" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3607088</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>362133</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.39</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>286511</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.67</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>222628</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.88</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181826</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.73</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>34</v>
+      </c>
+      <c r="D28" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E28" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>789</v>
+      </c>
+      <c r="G28" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E29" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>844</v>
+      </c>
+      <c r="G29" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G30" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E31" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F31" t="n">
+        <v>719</v>
+      </c>
+      <c r="G31" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E32" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F32" t="n">
+        <v>519</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F33" t="n">
+        <v>807</v>
+      </c>
+      <c r="G33" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E34" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>670</v>
+      </c>
+      <c r="G34" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E35" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F35" t="n">
+        <v>486</v>
+      </c>
+      <c r="G35" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E36" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F36" t="n">
+        <v>813</v>
+      </c>
+      <c r="G36" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>31</v>
+      </c>
+      <c r="D37" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E37" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F37" t="n">
+        <v>609</v>
+      </c>
+      <c r="G37" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E38" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>772</v>
+      </c>
+      <c r="G38" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E39" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G39" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E40" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F40" t="n">
+        <v>689</v>
+      </c>
+      <c r="G40" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E41" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G41" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E42" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>408</v>
+      </c>
+      <c r="G42" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E43" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>842</v>
+      </c>
+      <c r="G43" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E44" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G44" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E45" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>524</v>
+      </c>
+      <c r="G45" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E46" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>570</v>
+      </c>
+      <c r="G46" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E47" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G47" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>29</v>
+      </c>
+      <c r="D48" t="n">
+        <v>75838</v>
+      </c>
+      <c r="E48" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>725</v>
+      </c>
+      <c r="G48" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3607088</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>362133</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.39</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>286511</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.67</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>222628</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.91</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.88</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181826</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.73</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>34</v>
+      </c>
+      <c r="D28" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E28" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>789</v>
+      </c>
+      <c r="G28" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E29" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>844</v>
+      </c>
+      <c r="G29" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G30" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E31" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F31" t="n">
+        <v>719</v>
+      </c>
+      <c r="G31" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E32" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F32" t="n">
+        <v>519</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F33" t="n">
+        <v>807</v>
+      </c>
+      <c r="G33" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E34" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>670</v>
+      </c>
+      <c r="G34" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E35" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F35" t="n">
+        <v>486</v>
+      </c>
+      <c r="G35" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E36" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F36" t="n">
+        <v>813</v>
+      </c>
+      <c r="G36" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>31</v>
+      </c>
+      <c r="D37" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E37" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F37" t="n">
+        <v>609</v>
+      </c>
+      <c r="G37" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E38" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>772</v>
+      </c>
+      <c r="G38" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E39" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G39" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E40" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F40" t="n">
+        <v>689</v>
+      </c>
+      <c r="G40" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E41" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G41" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E42" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>408</v>
+      </c>
+      <c r="G42" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E43" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>842</v>
+      </c>
+      <c r="G43" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E44" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G44" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E45" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>524</v>
+      </c>
+      <c r="G45" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E46" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>570</v>
+      </c>
+      <c r="G46" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E47" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G47" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>29</v>
+      </c>
+      <c r="D48" t="n">
+        <v>75838</v>
+      </c>
+      <c r="E48" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>725</v>
+      </c>
+      <c r="G48" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode4.xlsx
+++ b/mode4.xlsx
@@ -31,6 +31,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-28_07-48" sheetId="22" state="visible" r:id="rId22"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-28_08-20" sheetId="23" state="visible" r:id="rId23"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-28_08-51" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-28_21-25" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-29_02-14" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21356,6 +21358,2618 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3607088</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>362133</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.39</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>286511</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.67</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>222628</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.91</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.88</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181826</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.73</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>34</v>
+      </c>
+      <c r="D28" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E28" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>789</v>
+      </c>
+      <c r="G28" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E29" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>844</v>
+      </c>
+      <c r="G29" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G30" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E31" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F31" t="n">
+        <v>719</v>
+      </c>
+      <c r="G31" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E32" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F32" t="n">
+        <v>519</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F33" t="n">
+        <v>807</v>
+      </c>
+      <c r="G33" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E34" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>670</v>
+      </c>
+      <c r="G34" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E35" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F35" t="n">
+        <v>486</v>
+      </c>
+      <c r="G35" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E36" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F36" t="n">
+        <v>813</v>
+      </c>
+      <c r="G36" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>31</v>
+      </c>
+      <c r="D37" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E37" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F37" t="n">
+        <v>609</v>
+      </c>
+      <c r="G37" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E38" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>772</v>
+      </c>
+      <c r="G38" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E39" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G39" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E40" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F40" t="n">
+        <v>689</v>
+      </c>
+      <c r="G40" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E41" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G41" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E42" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>408</v>
+      </c>
+      <c r="G42" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E43" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>842</v>
+      </c>
+      <c r="G43" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E44" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G44" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E45" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>524</v>
+      </c>
+      <c r="G45" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E46" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>570</v>
+      </c>
+      <c r="G46" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E47" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G47" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>29</v>
+      </c>
+      <c r="D48" t="n">
+        <v>77415</v>
+      </c>
+      <c r="E48" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>725</v>
+      </c>
+      <c r="G48" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3607088</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>365177</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.39</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>286511</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.67</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>222628</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.91</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.88</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181826</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.73</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>34</v>
+      </c>
+      <c r="D28" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E28" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>789</v>
+      </c>
+      <c r="G28" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E29" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>844</v>
+      </c>
+      <c r="G29" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G30" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E31" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F31" t="n">
+        <v>719</v>
+      </c>
+      <c r="G31" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E32" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F32" t="n">
+        <v>519</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F33" t="n">
+        <v>807</v>
+      </c>
+      <c r="G33" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E34" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>670</v>
+      </c>
+      <c r="G34" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E35" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F35" t="n">
+        <v>486</v>
+      </c>
+      <c r="G35" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E36" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F36" t="n">
+        <v>813</v>
+      </c>
+      <c r="G36" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>31</v>
+      </c>
+      <c r="D37" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E37" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F37" t="n">
+        <v>609</v>
+      </c>
+      <c r="G37" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E38" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>772</v>
+      </c>
+      <c r="G38" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E39" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G39" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E40" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F40" t="n">
+        <v>689</v>
+      </c>
+      <c r="G40" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E41" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G41" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E42" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>408</v>
+      </c>
+      <c r="G42" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E43" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>842</v>
+      </c>
+      <c r="G43" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E44" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G44" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E45" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>524</v>
+      </c>
+      <c r="G45" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E46" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>570</v>
+      </c>
+      <c r="G46" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E47" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G47" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>29</v>
+      </c>
+      <c r="D48" t="n">
+        <v>77415</v>
+      </c>
+      <c r="E48" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>725</v>
+      </c>
+      <c r="G48" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode4.xlsx
+++ b/mode4.xlsx
@@ -33,6 +33,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-28_08-51" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-28_21-25" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-29_02-14" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-29_19-46" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-06-29_20-18" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23970,6 +23972,2618 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3607088</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>367471</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.39</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>286511</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.67</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>222628</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.91</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.88</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181826</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.73</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>34</v>
+      </c>
+      <c r="D28" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E28" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>789</v>
+      </c>
+      <c r="G28" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E29" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>844</v>
+      </c>
+      <c r="G29" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G30" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E31" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F31" t="n">
+        <v>719</v>
+      </c>
+      <c r="G31" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E32" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F32" t="n">
+        <v>519</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F33" t="n">
+        <v>807</v>
+      </c>
+      <c r="G33" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E34" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>670</v>
+      </c>
+      <c r="G34" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E35" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F35" t="n">
+        <v>486</v>
+      </c>
+      <c r="G35" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E36" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F36" t="n">
+        <v>813</v>
+      </c>
+      <c r="G36" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>31</v>
+      </c>
+      <c r="D37" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E37" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F37" t="n">
+        <v>609</v>
+      </c>
+      <c r="G37" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E38" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>772</v>
+      </c>
+      <c r="G38" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E39" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G39" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E40" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F40" t="n">
+        <v>689</v>
+      </c>
+      <c r="G40" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E41" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G41" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E42" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>408</v>
+      </c>
+      <c r="G42" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E43" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>842</v>
+      </c>
+      <c r="G43" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E44" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G44" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E45" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>524</v>
+      </c>
+      <c r="G45" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E46" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>570</v>
+      </c>
+      <c r="G46" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E47" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G47" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>29</v>
+      </c>
+      <c r="D48" t="n">
+        <v>77415</v>
+      </c>
+      <c r="E48" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>725</v>
+      </c>
+      <c r="G48" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3607088</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>367706</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.39</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>286511</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.67</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>222628</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.91</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.88</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181826</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.73</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>34</v>
+      </c>
+      <c r="D28" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E28" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>789</v>
+      </c>
+      <c r="G28" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E29" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>844</v>
+      </c>
+      <c r="G29" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G30" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E31" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F31" t="n">
+        <v>719</v>
+      </c>
+      <c r="G31" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E32" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F32" t="n">
+        <v>519</v>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F33" t="n">
+        <v>807</v>
+      </c>
+      <c r="G33" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E34" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>670</v>
+      </c>
+      <c r="G34" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E35" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F35" t="n">
+        <v>486</v>
+      </c>
+      <c r="G35" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E36" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F36" t="n">
+        <v>813</v>
+      </c>
+      <c r="G36" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>31</v>
+      </c>
+      <c r="D37" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E37" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F37" t="n">
+        <v>609</v>
+      </c>
+      <c r="G37" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E38" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>772</v>
+      </c>
+      <c r="G38" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E39" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G39" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E40" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F40" t="n">
+        <v>689</v>
+      </c>
+      <c r="G40" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E41" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G41" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E42" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>408</v>
+      </c>
+      <c r="G42" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E43" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>842</v>
+      </c>
+      <c r="G43" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E44" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G44" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E45" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>524</v>
+      </c>
+      <c r="G45" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E46" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>570</v>
+      </c>
+      <c r="G46" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E47" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G47" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>29</v>
+      </c>
+      <c r="D48" t="n">
+        <v>77415</v>
+      </c>
+      <c r="E48" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>725</v>
+      </c>
+      <c r="G48" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode4.xlsx
+++ b/mode4.xlsx
@@ -59,6 +59,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-07-31_17-45" sheetId="50" state="visible" r:id="rId50"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-07-31_22-09" sheetId="51" state="visible" r:id="rId51"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-07-31_22-41" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-01_22-38" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-02_13-26" sheetId="55" state="visible" r:id="rId55"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -63158,6 +63161,2636 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>160252</v>
+      </c>
+      <c r="E28" t="n">
+        <v>98.31</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>161076</v>
+      </c>
+      <c r="E28" t="n">
+        <v>98.31</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode4.xlsx
+++ b/mode4.xlsx
@@ -62,6 +62,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4" sheetId="53" state="visible" r:id="rId53"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-01_22-38" sheetId="54" state="visible" r:id="rId54"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-02_13-26" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-02_16-07" sheetId="56" state="visible" r:id="rId56"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -65791,6 +65792,1312 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>161076</v>
+      </c>
+      <c r="E28" t="n">
+        <v>98.25</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode4.xlsx
+++ b/mode4.xlsx
@@ -63,6 +63,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-01_22-38" sheetId="54" state="visible" r:id="rId54"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-02_13-26" sheetId="55" state="visible" r:id="rId55"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-02_16-07" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-02_19-54" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-02_22-18" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-02_22-50" sheetId="59" state="visible" r:id="rId59"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -67098,6 +67101,3924 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>162686</v>
+      </c>
+      <c r="E28" t="n">
+        <v>98.25</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>163487</v>
+      </c>
+      <c r="E28" t="n">
+        <v>98.23999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>164631</v>
+      </c>
+      <c r="E28" t="n">
+        <v>98.23999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode4.xlsx
+++ b/mode4.xlsx
@@ -66,6 +66,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-02_19-54" sheetId="57" state="visible" r:id="rId57"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-02_22-18" sheetId="58" state="visible" r:id="rId58"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-02_22-50" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-03_15-56" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-03_19-47" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-03_20-19" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-03_21-58" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-03_23-07" sheetId="64" state="visible" r:id="rId64"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -72325,6 +72330,6536 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>164631</v>
+      </c>
+      <c r="E28" t="n">
+        <v>98.25</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>164780</v>
+      </c>
+      <c r="E28" t="n">
+        <v>98.25</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>165015</v>
+      </c>
+      <c r="E28" t="n">
+        <v>98.25</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E27" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>165167</v>
+      </c>
+      <c r="E28" t="n">
+        <v>98.27</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>166644</v>
+      </c>
+      <c r="E27" t="n">
+        <v>98.27</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G27" t="n">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F28" t="n">
+        <v>676</v>
+      </c>
+      <c r="G28" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode4.xlsx
+++ b/mode4.xlsx
@@ -71,6 +71,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-03_20-19" sheetId="62" state="visible" r:id="rId62"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-03_21-58" sheetId="63" state="visible" r:id="rId63"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-03_23-07" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-04_22-16" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-04_22-48" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-04_23-21" sheetId="67" state="visible" r:id="rId67"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -78860,6 +78863,3924 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>168647</v>
+      </c>
+      <c r="E27" t="n">
+        <v>98.28</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G27" t="n">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F28" t="n">
+        <v>676</v>
+      </c>
+      <c r="G28" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>168863</v>
+      </c>
+      <c r="E27" t="n">
+        <v>98.28</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G27" t="n">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F28" t="n">
+        <v>676</v>
+      </c>
+      <c r="G28" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E26" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>169102</v>
+      </c>
+      <c r="E27" t="n">
+        <v>98.28</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G27" t="n">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F28" t="n">
+        <v>676</v>
+      </c>
+      <c r="G28" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode4.xlsx
+++ b/mode4.xlsx
@@ -74,6 +74,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-04_22-16" sheetId="65" state="visible" r:id="rId65"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-04_22-48" sheetId="66" state="visible" r:id="rId66"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-04_23-21" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-05_22-08" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-05_22-45" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-05_23-20" sheetId="70" state="visible" r:id="rId70"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -82781,6 +82784,2618 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>169644</v>
+      </c>
+      <c r="E26" t="n">
+        <v>98.29000000000001</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E27" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G27" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F28" t="n">
+        <v>676</v>
+      </c>
+      <c r="G28" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>711</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>170873</v>
+      </c>
+      <c r="E26" t="n">
+        <v>98.29000000000001</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E27" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G27" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F28" t="n">
+        <v>676</v>
+      </c>
+      <c r="G28" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -84080,6 +86695,1312 @@
       </c>
       <c r="G51" t="n">
         <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>171058</v>
+      </c>
+      <c r="E25" t="n">
+        <v>98.29000000000001</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E26" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F26" t="n">
+        <v>711</v>
+      </c>
+      <c r="G26" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E27" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G27" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F28" t="n">
+        <v>676</v>
+      </c>
+      <c r="G28" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/mode4.xlsx
+++ b/mode4.xlsx
@@ -77,6 +77,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-05_22-08" sheetId="68" state="visible" r:id="rId68"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-05_22-45" sheetId="69" state="visible" r:id="rId69"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-05_23-20" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-06_22-06" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-06_22-40" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-06_23-12" sheetId="73" state="visible" r:id="rId73"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -88008,6 +88011,3924 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>171427</v>
+      </c>
+      <c r="E25" t="n">
+        <v>98.31</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E26" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F26" t="n">
+        <v>711</v>
+      </c>
+      <c r="G26" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E27" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G27" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F28" t="n">
+        <v>676</v>
+      </c>
+      <c r="G28" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>36</v>
+      </c>
+      <c r="D25" t="n">
+        <v>178968</v>
+      </c>
+      <c r="E25" t="n">
+        <v>98.31999999999999</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E26" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F26" t="n">
+        <v>711</v>
+      </c>
+      <c r="G26" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E27" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G27" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F28" t="n">
+        <v>676</v>
+      </c>
+      <c r="G28" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>438853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>36</v>
+      </c>
+      <c r="D25" t="n">
+        <v>179425</v>
+      </c>
+      <c r="E25" t="n">
+        <v>98.31999999999999</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E26" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F26" t="n">
+        <v>711</v>
+      </c>
+      <c r="G26" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E27" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G27" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F28" t="n">
+        <v>676</v>
+      </c>
+      <c r="G28" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/mode4.xlsx
+++ b/mode4.xlsx
@@ -80,6 +80,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-06_22-06" sheetId="71" state="visible" r:id="rId71"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-06_22-40" sheetId="72" state="visible" r:id="rId72"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-06_23-12" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-09_13-53" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mode_4_2025-08-09_21-57" sheetId="75" state="visible" r:id="rId75"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -91929,6 +91931,2618 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>441196</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227782</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>36</v>
+      </c>
+      <c r="D25" t="n">
+        <v>181323</v>
+      </c>
+      <c r="E25" t="n">
+        <v>98.31</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E26" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F26" t="n">
+        <v>711</v>
+      </c>
+      <c r="G26" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E27" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G27" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F28" t="n">
+        <v>676</v>
+      </c>
+      <c r="G28" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>combo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BluePlusSymbol</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3609160</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AlbertPiano</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1019976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permutation</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>928049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PlusPearPi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>729627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>735</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tar5009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R23stn0reine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>443393</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tonbogri</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>441196</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>979</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kurana_Ayane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>330796</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YOKUZARK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>315434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1131</v>
+      </c>
+      <c r="G10" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yukkuri</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TsukiKushou</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277802</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YA_GAMMER</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>584</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jubeat_festo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G14" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>END233</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>229172</v>
+      </c>
+      <c r="E15" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>900</v>
+      </c>
+      <c r="G15" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123abd456789</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>227983</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>637</v>
+      </c>
+      <c r="G16" t="n">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SenNa__</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NakashimaRina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>219772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>520</v>
+      </c>
+      <c r="G18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ERR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" t="n">
+        <v>219071</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ryota</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217225</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G20" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hexexie</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91.72</v>
+      </c>
+      <c r="F21" t="n">
+        <v>860</v>
+      </c>
+      <c r="G21" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CrossCole</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>204914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>595</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Very20235</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>184211</v>
+      </c>
+      <c r="E23" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LiN(i-Pr)2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>181983</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>752</v>
+      </c>
+      <c r="G24" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>notpc</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>36</v>
+      </c>
+      <c r="D25" t="n">
+        <v>181323</v>
+      </c>
+      <c r="E25" t="n">
+        <v>98.31</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>LS532</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>170893</v>
+      </c>
+      <c r="E26" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="F26" t="n">
+        <v>711</v>
+      </c>
+      <c r="G26" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HXYZ-DJK</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>169162</v>
+      </c>
+      <c r="E27" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G27" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Guangshi2319</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>165508</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="F28" t="n">
+        <v>676</v>
+      </c>
+      <c r="G28" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hazeiro</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>34</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152373</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tazu</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138948</v>
+      </c>
+      <c r="E30" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>844</v>
+      </c>
+      <c r="G30" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AlIlINNlIlINNNE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
+        <v>136816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G31" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Curtainsss</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>719</v>
+      </c>
+      <c r="G32" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kira0728</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127216</v>
+      </c>
+      <c r="E33" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="F33" t="n">
+        <v>519</v>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMM0202</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120867</v>
+      </c>
+      <c r="E34" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DairaSick</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>110802</v>
+      </c>
+      <c r="E35" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitaqier</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
+        <v>107835</v>
+      </c>
+      <c r="E36" t="n">
+        <v>89.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cider_CCC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>106883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93.41</v>
+      </c>
+      <c r="F37" t="n">
+        <v>813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>callmehan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102649</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.33</v>
+      </c>
+      <c r="F38" t="n">
+        <v>609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>YeGee</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101629</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>772</v>
+      </c>
+      <c r="G39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Elaina-</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1249</v>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ImSayk</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="n">
+        <v>94621</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>689</v>
+      </c>
+      <c r="G41" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>xipigu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94265</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G42" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>heyrobin</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91748</v>
+      </c>
+      <c r="E43" t="n">
+        <v>83.27</v>
+      </c>
+      <c r="F43" t="n">
+        <v>408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tanatose</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>91196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>842</v>
+      </c>
+      <c r="G44" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SABM4096</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>89543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>taka030</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80496</v>
+      </c>
+      <c r="E46" t="n">
+        <v>91.47</v>
+      </c>
+      <c r="F46" t="n">
+        <v>524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yumene-Drum</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79957</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>570</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LaoNiang</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>79756</v>
+      </c>
+      <c r="E48" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AKAGAMI</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>75581</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349</v>
+      </c>
+      <c r="G49" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YukiHiro5T2Y</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" t="n">
+        <v>75504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>857</v>
+      </c>
+      <c r="G50" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MouShan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74870</v>
+      </c>
+      <c r="E51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>716</v>
+      </c>
+      <c r="G51" t="n">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
